--- a/DragPrediction/NL2VP DragX/0.75T/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75T/n/6/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.50724405847162812</v>
+        <v>1.3041929459999999</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>5.1620062730634917</v>
+        <v>13.272214935000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E59" si="0">A3*$E$1</f>
-        <v>0.49533753658640084</v>
+        <v>1.273579671</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.50707520152631402</v>
+        <v>1.303758792</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.19876996052727275</v>
+        <v>0.51106440000000009</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.22279889027908265</v>
+        <v>0.57284602200000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.45170180313012398</v>
+        <v>1.1613863100000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.22478984058882645</v>
+        <v>0.57796502400000005</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.29855948197797522</v>
+        <v>0.7676367300000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.17390653083270247</v>
+        <v>0.44713716599999997</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.12068025541005373</v>
+        <v>0.310285227</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-1.8936905387851241E-2</v>
+        <v>-4.8689340000000005E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-2.0838395983847111E-2</v>
+        <v>-5.3578329000000008E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-0.14564119807115702</v>
+        <v>-0.37446318000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-2.960586447870248E-2</v>
+        <v>-7.6120674000000013E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-2.0726369193582644E-2</v>
+        <v>-5.3290293000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>9.9869065699053711E-2</v>
+        <v>0.25677684899999997</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>9.8921313826152893E-2</v>
+        <v>0.25434005100000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2.270089446138843E-2</v>
+        <v>5.8367064000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.11419091001188431</v>
+        <v>0.29360024400000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.11250833557653719</v>
+        <v>0.28927411800000002</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-1.9380005810615702E-2</v>
+        <v>-4.9828611000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-2.3306538275305787E-2</v>
+        <v>-5.9924256000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-2.8535525109805785E-2</v>
+        <v>-7.3368687000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-4.5562470101318184E-2</v>
+        <v>-0.117147261</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-0.1089250464671157</v>
+        <v>-0.28006099800000001</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-0.10266190272805785</v>
+        <v>-0.26395761000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-0.10641497988909919</v>
+        <v>-0.27360727800000001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-6.4615551419814052E-2</v>
+        <v>-0.16613530500000001</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-0.10044878555319421</v>
+        <v>-0.25826738700000001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2.3163311256198346E-2</v>
+        <v>5.9555999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>2.7663372534855374E-2</v>
+        <v>7.1126265000000008E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>3.2026798046938018E-2</v>
+        <v>8.234522100000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>6.9337559038413224E-2</v>
+        <v>0.17827622399999998</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>4.3218222121723139E-2</v>
+        <v>0.111119883</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>7.450055167159092E-2</v>
+        <v>0.19155097500000001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4.9346976183979339E-2</v>
+        <v>0.12687773700000002</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>7.7599796183590905E-2</v>
+        <v>0.19951955100000002</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>7.8558762170157032E-2</v>
+        <v>0.20198518200000001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>6.4359325666140499E-2</v>
+        <v>0.16547651400000002</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>5.378836959777273E-2</v>
+        <v>0.138297159</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>8.5022297954938028E-2</v>
+        <v>0.21860380500000004</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>8.3823465915842985E-2</v>
+        <v>0.21552144600000001</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>8.212197532080992E-2</v>
+        <v>0.211146684</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>8.0266125268995861E-2</v>
+        <v>0.20637504300000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>8.3775252577921497E-2</v>
+        <v>0.21539748300000003</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>8.5933655005921483E-2</v>
+        <v>0.22094702699999999</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>8.1814081334764463E-2</v>
+        <v>0.21035504700000002</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>0.11238189297373141</v>
+        <v>0.28894901700000003</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>7.8069759840037195E-2</v>
+        <v>0.20072789100000002</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0.10093773071011984</v>
+        <v>0.259524531</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>0.11890283881310332</v>
+        <v>0.30571524900000002</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>9.7194846712847102E-2</v>
+        <v>0.249901071</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>9.3856267042264463E-2</v>
+        <v>0.24131713200000002</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>0.11602028070717769</v>
+        <v>0.29830380300000003</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.11727449723626861</v>
+        <v>0.30152856300000003</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>0.11227100147975208</v>
+        <v>0.28866390000000003</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>0.11113115584188844</v>
+        <v>0.28573320300000005</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>0.11419156341981819</v>
+        <v>0.29360192400000001</v>
       </c>
     </row>
   </sheetData>
@@ -1426,5 +1426,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>